--- a/silver/excel/int_crew_metrics.xlsx
+++ b/silver/excel/int_crew_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>hours_logged</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>avg_rate</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>flight_hours</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>crew_cost</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>crew_flag</t>
         </is>
@@ -468,221 +473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FL9519</t>
+          <t>FL4736</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>65.66</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>6.1</v>
+        <v>145.26</v>
       </c>
       <c r="E2" t="n">
-        <v>1601.98</v>
-      </c>
-      <c r="F2" t="b">
+        <v>1.45</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3050.44</v>
+      </c>
+      <c r="G2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FL4177</t>
+          <t>FL1524</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>65.01000000000001</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.48</v>
+        <v>168.54</v>
       </c>
       <c r="E3" t="n">
-        <v>644.92</v>
-      </c>
-      <c r="F3" t="b">
+        <v>3.683333333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8089.73</v>
+      </c>
+      <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL4773</t>
+          <t>FL2240</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>65.37</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>4.44</v>
+        <v>181.08</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.93</v>
-      </c>
-      <c r="F4" t="b">
+        <v>4.95</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8872.98</v>
+      </c>
+      <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FL1288</t>
+          <t>FL6133</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>64.40000000000001</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>3.17</v>
+        <v>173.32</v>
       </c>
       <c r="E5" t="n">
-        <v>816.62</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
+        <v>4.95</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9705.93</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FL2825</t>
+          <t>FL8121</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>66.14</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3.52</v>
+        <v>147.4</v>
       </c>
       <c r="E6" t="n">
-        <v>931.25</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
+        <v>1.45</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3095.32</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FL9323</t>
+          <t>FL9519</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>67.23</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>1.21</v>
+        <v>194.52</v>
       </c>
       <c r="E7" t="n">
-        <v>325.37</v>
-      </c>
-      <c r="F7" t="b">
+        <v>16.88333333333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>36959.18</v>
+      </c>
+      <c r="G7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FL7208</t>
+          <t>FL1740</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="C8" t="n">
-        <v>67</v>
-      </c>
       <c r="D8" t="n">
-        <v>6.39</v>
+        <v>143.54</v>
       </c>
       <c r="E8" t="n">
-        <v>1712.52</v>
-      </c>
-      <c r="F8" t="b">
+        <v>2.033333333333333</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4019.08</v>
+      </c>
+      <c r="G8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL8734</t>
+          <t>FL3335</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="C9" t="n">
-        <v>65.58</v>
-      </c>
       <c r="D9" t="n">
-        <v>3.04</v>
+        <v>144.89</v>
       </c>
       <c r="E9" t="n">
-        <v>797.48</v>
-      </c>
-      <c r="F9" t="b">
+        <v>2.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4056.78</v>
+      </c>
+      <c r="G9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FL6596</t>
+          <t>FL1198</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="C10" t="n">
-        <v>64.26000000000001</v>
-      </c>
       <c r="D10" t="n">
-        <v>7.7</v>
+        <v>140.69</v>
       </c>
       <c r="E10" t="n">
-        <v>1979.13</v>
-      </c>
-      <c r="F10" t="b">
+        <v>2.033333333333333</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3939.37</v>
+      </c>
+      <c r="G10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FL3561</t>
+          <t>FL8464</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>174.68</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.683333333333333</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7336.52</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FL1294</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>177.63</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8703.969999999999</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FL1976</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>172.18</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.683333333333333</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7231.59</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FL2900</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
         <v>4</v>
       </c>
-      <c r="C11" t="n">
-        <v>66.89</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="E11" t="n">
-        <v>794.62</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="D14" t="n">
+        <v>144.63</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.033333333333333</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4049.5</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FL5544</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>169.78</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9507.48</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FL1344</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4029.28</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FL2664</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>144.92</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4057.77</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FL7598</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>19</v>
+      </c>
+      <c r="D18" t="n">
+        <v>195.14</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16.88333333333333</v>
+      </c>
+      <c r="F18" t="n">
+        <v>37075.84</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FL2644</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="n">
+        <v>19</v>
+      </c>
+      <c r="D19" t="n">
+        <v>189.08</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16.88333333333333</v>
+      </c>
+      <c r="F19" t="n">
+        <v>39518.1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FL3756</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>137.37</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3296.8</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FL5997</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7</v>
+      </c>
+      <c r="D21" t="n">
+        <v>175.12</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9806.49</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FL5689</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>145.35</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.033333333333333</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4069.73</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FL9566</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7</v>
+      </c>
+      <c r="D23" t="n">
+        <v>176.02</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8624.9</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FL5608</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>168.62</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.683333333333333</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8093.66</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FL1990</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>198.07</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F25" t="n">
+        <v>17826.48</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FL6369</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6</v>
+      </c>
+      <c r="D26" t="n">
+        <v>181.68</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.683333333333333</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7630.55</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/silver/excel/int_crew_metrics.xlsx
+++ b/silver/excel/int_crew_metrics.xlsx
@@ -473,48 +473,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FL4736</t>
+          <t>FL6954</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>145.26</v>
+        <v>148.28</v>
       </c>
       <c r="E2" t="n">
-        <v>1.45</v>
+        <v>2.033333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>3050.44</v>
+        <v>4151.89</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FL1524</t>
+          <t>FL5223</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>168.54</v>
+        <v>198.1</v>
       </c>
       <c r="E3" t="n">
-        <v>3.683333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="F3" t="n">
-        <v>8089.73</v>
+        <v>17829.18</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -523,7 +523,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL2240</t>
+          <t>FL5569</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -533,13 +533,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>181.08</v>
+        <v>180.53</v>
       </c>
       <c r="E4" t="n">
         <v>4.95</v>
       </c>
       <c r="F4" t="n">
-        <v>8872.98</v>
+        <v>8846.209999999999</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -548,23 +548,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FL6133</t>
+          <t>FL6756</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>173.32</v>
+        <v>176.06</v>
       </c>
       <c r="E5" t="n">
-        <v>4.95</v>
+        <v>1.45</v>
       </c>
       <c r="F5" t="n">
-        <v>9705.93</v>
+        <v>2640.92</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -573,23 +573,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FL8121</t>
+          <t>FL1724</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4</v>
+        <v>149.41</v>
       </c>
       <c r="E6" t="n">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="F6" t="n">
-        <v>3095.32</v>
+        <v>4183.51</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -598,48 +598,48 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FL9519</t>
+          <t>FL4158</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>194.52</v>
+        <v>188.37</v>
       </c>
       <c r="E7" t="n">
-        <v>16.88333333333333</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>36959.18</v>
+        <v>7911.56</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FL1740</t>
+          <t>FL1198</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>143.54</v>
+        <v>153.62</v>
       </c>
       <c r="E8" t="n">
-        <v>2.033333333333333</v>
+        <v>1.45</v>
       </c>
       <c r="F8" t="n">
-        <v>4019.08</v>
+        <v>6515.05</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -648,7 +648,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL3335</t>
+          <t>FL3703</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -658,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>144.89</v>
+        <v>148.96</v>
       </c>
       <c r="E9" t="n">
-        <v>2.5</v>
+        <v>2.033333333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>4056.78</v>
+        <v>4170.82</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -673,23 +673,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FL1198</t>
+          <t>FL6943</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>140.69</v>
+        <v>189.5</v>
       </c>
       <c r="E10" t="n">
-        <v>2.033333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="F10" t="n">
-        <v>3939.37</v>
+        <v>18760.86</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -698,23 +698,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FL8464</t>
+          <t>FL1855</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>174.68</v>
+        <v>201.45</v>
       </c>
       <c r="E11" t="n">
-        <v>3.683333333333333</v>
+        <v>16.88333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>7336.52</v>
+        <v>38275.5</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -723,23 +723,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FL1294</t>
+          <t>FL2193</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>177.63</v>
+        <v>175.67</v>
       </c>
       <c r="E12" t="n">
-        <v>4.95</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>8703.969999999999</v>
+        <v>8432.15</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -748,23 +748,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FL1976</t>
+          <t>FL9261</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>172.18</v>
+        <v>140.02</v>
       </c>
       <c r="E13" t="n">
-        <v>3.683333333333333</v>
+        <v>2.033333333333333</v>
       </c>
       <c r="F13" t="n">
-        <v>7231.59</v>
+        <v>8961.17</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -773,7 +773,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FL2900</t>
+          <t>FL5690</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -783,13 +783,13 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>144.63</v>
+        <v>147.61</v>
       </c>
       <c r="E14" t="n">
         <v>2.033333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>4049.5</v>
+        <v>4133.08</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -798,23 +798,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FL5544</t>
+          <t>FL3756</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>169.78</v>
+        <v>137.37</v>
       </c>
       <c r="E15" t="n">
-        <v>4.95</v>
+        <v>1.45</v>
       </c>
       <c r="F15" t="n">
-        <v>9507.48</v>
+        <v>3296.8</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -823,23 +823,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FL1344</t>
+          <t>FL4122</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>143.9</v>
+        <v>183.89</v>
       </c>
       <c r="E16" t="n">
-        <v>2.5</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="F16" t="n">
-        <v>4029.28</v>
+        <v>7723.21</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -848,7 +848,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FL2664</t>
+          <t>FL9643</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -858,13 +858,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>144.92</v>
+        <v>149.99</v>
       </c>
       <c r="E17" t="n">
-        <v>2.5</v>
+        <v>2.033333333333333</v>
       </c>
       <c r="F17" t="n">
-        <v>4057.77</v>
+        <v>4199.71</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -873,23 +873,23 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FL7598</t>
+          <t>FL7920</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>195.14</v>
+        <v>137.42</v>
       </c>
       <c r="E18" t="n">
-        <v>16.88333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="F18" t="n">
-        <v>37075.84</v>
+        <v>4397.39</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -898,23 +898,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FL2644</t>
+          <t>FL1111</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" t="n">
         <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>189.08</v>
+        <v>200.72</v>
       </c>
       <c r="E19" t="n">
         <v>16.88333333333333</v>
       </c>
       <c r="F19" t="n">
-        <v>39518.1</v>
+        <v>38136.04</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -923,23 +923,23 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FL3756</t>
+          <t>FL1990</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>137.37</v>
+        <v>198.07</v>
       </c>
       <c r="E20" t="n">
-        <v>1.45</v>
+        <v>7.25</v>
       </c>
       <c r="F20" t="n">
-        <v>3296.8</v>
+        <v>17826.48</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -948,23 +948,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FL5997</t>
+          <t>FL8469</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>175.12</v>
+        <v>148.98</v>
       </c>
       <c r="E21" t="n">
-        <v>4.95</v>
+        <v>2.5</v>
       </c>
       <c r="F21" t="n">
-        <v>9806.49</v>
+        <v>4171.5</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -973,23 +973,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FL5689</t>
+          <t>FL4612</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>145.35</v>
+        <v>192.09</v>
       </c>
       <c r="E22" t="n">
-        <v>2.033333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="F22" t="n">
-        <v>4069.73</v>
+        <v>19016.82</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -998,23 +998,23 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FL9566</t>
+          <t>FL9825</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>176.02</v>
+        <v>166.73</v>
       </c>
       <c r="E23" t="n">
         <v>4.95</v>
       </c>
       <c r="F23" t="n">
-        <v>8624.9</v>
+        <v>9336.65</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1023,7 +1023,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FL5608</t>
+          <t>FL8118</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1033,13 +1033,13 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>168.62</v>
+        <v>167.61</v>
       </c>
       <c r="E24" t="n">
         <v>3.683333333333333</v>
       </c>
       <c r="F24" t="n">
-        <v>8093.66</v>
+        <v>8045.48</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1048,7 +1048,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FL1990</t>
+          <t>FL4565</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1058,13 +1058,13 @@
         <v>9</v>
       </c>
       <c r="D25" t="n">
-        <v>198.07</v>
+        <v>195.79</v>
       </c>
       <c r="E25" t="n">
         <v>7.25</v>
       </c>
       <c r="F25" t="n">
-        <v>17826.48</v>
+        <v>17621.46</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1073,23 +1073,23 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FL6369</t>
+          <t>FL2007</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>181.68</v>
+        <v>154.78</v>
       </c>
       <c r="E26" t="n">
-        <v>3.683333333333333</v>
+        <v>1.45</v>
       </c>
       <c r="F26" t="n">
-        <v>7630.55</v>
+        <v>3250.33</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
